--- a/www/plys/Tern/NFsp65.xlsx
+++ b/www/plys/Tern/NFsp65.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzurloye\Desktop\RockR!\plys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtshu\Desktop\RockR-master\www\plys\Tern\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E472B4-6894-4728-802E-40380AE49AAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{B8D10DB5-6AE1-4917-8F13-AE390C6E951B}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{B8D10DB5-6AE1-4917-8F13-AE390C6E951B}"/>
   </bookViews>
   <sheets>
     <sheet name="plys" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -86,6 +87,15 @@
   </si>
   <si>
     <t>Normative Quartz-rich Extrusive Igneous Rock Classification</t>
+  </si>
+  <si>
+    <t>A_arrow</t>
+  </si>
+  <si>
+    <t>B_arrow</t>
+  </si>
+  <si>
+    <t>C_arrow</t>
   </si>
 </sst>
 </file>
@@ -439,16 +449,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2646E514-4E2C-4300-9552-6295CA8B8684}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>25</v>
       </c>
@@ -482,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>22.5</v>
       </c>
@@ -499,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>45</v>
       </c>
@@ -516,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22.5</v>
       </c>
@@ -533,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>25</v>
       </c>
@@ -550,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>16</v>
       </c>
@@ -567,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>32.5</v>
       </c>
@@ -584,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25</v>
       </c>
@@ -601,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>22.5</v>
       </c>
@@ -618,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20</v>
       </c>
@@ -635,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -652,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -669,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>22.5</v>
       </c>
@@ -686,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -703,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>32.5</v>
       </c>
@@ -720,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -737,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
@@ -754,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -771,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10</v>
       </c>
@@ -788,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -805,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>32.5</v>
       </c>
@@ -822,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>45</v>
       </c>
@@ -839,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22.5</v>
       </c>
@@ -856,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -873,7 +883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
@@ -890,7 +900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>32.5</v>
       </c>
@@ -907,7 +917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>16</v>
       </c>
@@ -924,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20</v>
       </c>
@@ -941,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>22.5</v>
       </c>
@@ -958,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>45</v>
       </c>
@@ -975,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -992,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20</v>
       </c>
@@ -1009,7 +1019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>16</v>
       </c>
@@ -1026,7 +1036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10</v>
       </c>
@@ -1043,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>16</v>
       </c>
@@ -1060,7 +1070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>20</v>
       </c>
@@ -1077,7 +1087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1095,7 +1105,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
     <sortCondition ref="D2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1110,9 +1120,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1164,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1190,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1216,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1301,15 +1311,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5165A3BD-1533-4200-A965-915AD95423FE}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1320,10 +1333,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1334,6 +1356,15 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
     </row>
